--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>886272.8164557589</v>
+        <v>882087.9953065893</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33929867.94740183</v>
+        <v>33929867.94740182</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165408</v>
+        <v>6463284.468165413</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>375.1146396877027</v>
       </c>
       <c r="X11" t="n">
-        <v>213.10287171689</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>150.705076704028</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>83.42963578489027</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.26832955855345</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>352.4401571808224</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.3286347479413</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>339.7258756074283</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>377.4807629273824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>137.6384805602076</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>246.5908803063693</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.155166406294305</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>87.94429424572338</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>161.8256092923331</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T23" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
-        <v>127.4226214505054</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>52.99410139708882</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H24" t="n">
         <v>31.06956703172742</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T24" t="n">
         <v>124.5995722140058</v>
@@ -2487,13 +2487,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>131.2307433419716</v>
       </c>
       <c r="G25" t="n">
         <v>163.0457076940604</v>
       </c>
       <c r="H25" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>61.01901167430096</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>68.63528194933998</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.619400782111</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>357.6442306761916</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>160.4056613182107</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H27" t="n">
         <v>31.06956703172742</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T27" t="n">
         <v>124.5995722140058</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0457076940604</v>
+        <v>16.13626634197911</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.8307504776532</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U28" t="n">
         <v>275.6001441286783</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>373.4351212673326</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824728</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>348.5131140887291</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H30" t="n">
         <v>31.06956703172742</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>26.55314915788221</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0457076940604</v>
+        <v>16.13626634197911</v>
       </c>
       <c r="H31" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.619400782111</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.13572667287761</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>252.7901606195881</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>256.471413082989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H33" t="n">
         <v>31.06956703172742</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T33" t="n">
         <v>124.5995722140058</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>38.21077633130403</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>20.49477552323878</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>93.91018112483835</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>372.0891918139129</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H36" t="n">
         <v>31.06956703172742</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T36" t="n">
         <v>124.5995722140058</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>16.13626634197911</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.619400782111</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>55.91038890643215</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>244.5489281238479</v>
+        <v>254.821676988137</v>
       </c>
       <c r="H38" t="n">
         <v>265.9270524809863</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824727</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H39" t="n">
         <v>31.06956703172742</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T39" t="n">
         <v>124.5995722140058</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0457076940604</v>
+        <v>16.13626634197867</v>
       </c>
       <c r="H40" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.619400782111</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>142.7593148496203</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>251.4308433793097</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.8992011158413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H42" t="n">
         <v>31.06956703172742</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T42" t="n">
         <v>124.5995722140058</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>71.6823827001557</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0457076940604</v>
+        <v>149.5917075894894</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.619400782111</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>58.55369241626159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824727</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U44" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>33.60860856554778</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H45" t="n">
         <v>31.06956703172742</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.10999954803938</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T45" t="n">
         <v>124.5995722140058</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430096</v>
+        <v>21.15098235968885</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.619400782111</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>93.37749760351117</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1310.486457285825</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.486457285825</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D11" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
         <v>47.20655154895473</v>
@@ -5038,25 +5038,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1319.269889665649</v>
       </c>
       <c r="X11" t="n">
-        <v>2145.07215147108</v>
+        <v>1319.269889665649</v>
       </c>
       <c r="Y11" t="n">
-        <v>1736.786027770733</v>
+        <v>910.9837659653025</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,7 +5111,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895473</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.7301297068562</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M13" t="n">
-        <v>1508.386114985197</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789086</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.267182904121</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W13" t="n">
-        <v>1423.240778490412</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X13" t="n">
-        <v>1338.968419111735</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.548748425843</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>874.5766724602698</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C14" t="n">
-        <v>874.5766724602698</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D14" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895473</v>
@@ -5275,13 +5275,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2323.692901125965</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2323.692901125965</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2064.622209647479</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>1702.005259581306</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W14" t="n">
-        <v>1702.005259581306</v>
+        <v>1696.401431380284</v>
       </c>
       <c r="X14" t="n">
-        <v>1282.862796160616</v>
+        <v>1277.258967959594</v>
       </c>
       <c r="Y14" t="n">
-        <v>874.5766724602698</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,7 +5348,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895473</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>526.0156699571453</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C16" t="n">
-        <v>526.0156699571453</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D16" t="n">
-        <v>526.0156699571453</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895473</v>
@@ -5436,13 +5436,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>828.1746199579902</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
         <v>1412.355695376305</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>717.8342886761325</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>744.7955325958366</v>
+        <v>828.5064744740449</v>
       </c>
       <c r="C17" t="n">
-        <v>744.7955325958366</v>
+        <v>390.3640016574682</v>
       </c>
       <c r="D17" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E17" t="n">
-        <v>744.7955325958366</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5548,19 +5548,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1957.24425759636</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1552.388803007393</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X17" t="n">
-        <v>1171.095103080744</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y17" t="n">
-        <v>1171.095103080744</v>
+        <v>828.5064744740449</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
@@ -5679,19 +5679,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9641928553087</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2016.697670932566</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.53013062851</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1997.710627381563</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C20" t="n">
-        <v>1559.568154564986</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>1123.658369739431</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
         <v>446.7092428694776</v>
@@ -5749,13 +5749,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X20" t="n">
-        <v>1997.710627381563</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y20" t="n">
-        <v>1997.710627381563</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.3221210718611</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>768.7604095550861</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D22" t="n">
-        <v>602.8824167566088</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E22" t="n">
-        <v>433.124413007346</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.140739790848</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1746.849277064803</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="C23" t="n">
-        <v>1746.849277064803</v>
+        <v>919.5873819200556</v>
       </c>
       <c r="D23" t="n">
-        <v>1310.939492239248</v>
+        <v>483.6775970945001</v>
       </c>
       <c r="E23" t="n">
-        <v>877.1647473975427</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="F23" t="n">
-        <v>449.2973178067504</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G23" t="n">
         <v>49.90285225279524</v>
@@ -5986,16 +5986,16 @@
         <v>49.90285225279524</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478771</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M23" t="n">
         <v>1196.234131838216</v>
@@ -6016,25 +6016,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T23" t="n">
-        <v>2283.845119402024</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="U23" t="n">
-        <v>2155.13540076515</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="V23" t="n">
-        <v>2155.13540076515</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="W23" t="n">
-        <v>2155.13540076515</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="X23" t="n">
-        <v>2155.13540076515</v>
+        <v>2192.315548921887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1746.849277064803</v>
+        <v>1784.02942522154</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>185.3289100816567</v>
       </c>
       <c r="K24" t="n">
-        <v>354.9720379468261</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L24" t="n">
-        <v>583.0781586238289</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M24" t="n">
-        <v>849.2672423832561</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N24" t="n">
         <v>1122.501559119456</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.1700603278379</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C25" t="n">
-        <v>754.6083488110628</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D25" t="n">
-        <v>754.6083488110628</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="E25" t="n">
-        <v>584.8503450618</v>
+        <v>408.7871580208084</v>
       </c>
       <c r="F25" t="n">
-        <v>408.1432910235562</v>
+        <v>276.2308516147764</v>
       </c>
       <c r="G25" t="n">
-        <v>243.4506569891518</v>
+        <v>111.538217580372</v>
       </c>
       <c r="H25" t="n">
         <v>111.538217580372</v>
@@ -6147,22 +6147,22 @@
         <v>49.90285225279524</v>
       </c>
       <c r="J25" t="n">
-        <v>112.1724417969994</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K25" t="n">
-        <v>489.2589604513198</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L25" t="n">
-        <v>620.2036521583938</v>
+        <v>763.6550793552192</v>
       </c>
       <c r="M25" t="n">
-        <v>1217.750336943873</v>
+        <v>1361.201764140698</v>
       </c>
       <c r="N25" t="n">
-        <v>1794.789132489017</v>
+        <v>1938.240559685843</v>
       </c>
       <c r="O25" t="n">
-        <v>1948.750097793811</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P25" t="n">
         <v>2402.780666612564</v>
@@ -6174,25 +6174,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S25" t="n">
-        <v>2425.814045014166</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T25" t="n">
-        <v>2183.774246244357</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U25" t="n">
-        <v>1905.390262275995</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V25" t="n">
-        <v>1618.434754146425</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.408349732717</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.408349732717</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.988679046825</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>887.4397906233271</v>
+        <v>1151.685246972684</v>
       </c>
       <c r="C26" t="n">
-        <v>449.2973178067504</v>
+        <v>1151.685246972684</v>
       </c>
       <c r="D26" t="n">
-        <v>449.2973178067504</v>
+        <v>1151.685246972684</v>
       </c>
       <c r="E26" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="F26" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G26" t="n">
-        <v>49.90285225279525</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279525</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J26" t="n">
         <v>291.8416560478772</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863826</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385208</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N26" t="n">
         <v>1546.586139125324</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P26" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q26" t="n">
         <v>2371.802978448969</v>
@@ -6256,22 +6256,22 @@
         <v>2495.142612639762</v>
       </c>
       <c r="T26" t="n">
-        <v>2333.116692116317</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="U26" t="n">
-        <v>2074.054658699156</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="V26" t="n">
-        <v>1711.437708632983</v>
+        <v>1921.22816933585</v>
       </c>
       <c r="W26" t="n">
-        <v>1306.582254044016</v>
+        <v>1921.22816933585</v>
       </c>
       <c r="X26" t="n">
-        <v>887.4397906233271</v>
+        <v>1921.22816933585</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.4397906233271</v>
+        <v>1512.942045635504</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279525</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I27" t="n">
-        <v>86.0736036377962</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J27" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K27" t="n">
-        <v>354.9720379468261</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L27" t="n">
-        <v>583.0781586238289</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M27" t="n">
-        <v>849.2672423832561</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N27" t="n">
         <v>1027.518923096495</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3409990880713</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C28" t="n">
-        <v>743.7792875712962</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D28" t="n">
-        <v>577.9012947728189</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="E28" t="n">
-        <v>408.1432910235562</v>
+        <v>242.9091652223311</v>
       </c>
       <c r="F28" t="n">
-        <v>408.1432910235562</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="G28" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H28" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279525</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J28" t="n">
-        <v>112.1724417969994</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K28" t="n">
-        <v>214.5005058801842</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L28" t="n">
-        <v>345.4451975872581</v>
+        <v>577.5111244639796</v>
       </c>
       <c r="M28" t="n">
-        <v>942.9918823727373</v>
+        <v>1175.057809249459</v>
       </c>
       <c r="N28" t="n">
-        <v>1236.39693595993</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O28" t="n">
-        <v>1780.557322929479</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P28" t="n">
-        <v>2234.587891748232</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R28" t="n">
         <v>2495.142612639762</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T28" t="n">
-        <v>2172.94518500459</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.561201036228</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V28" t="n">
-        <v>1607.605692906659</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W28" t="n">
-        <v>1335.57928849295</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.57928849295</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y28" t="n">
-        <v>1108.159617807058</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1567.640447434631</v>
+        <v>1323.349575448883</v>
       </c>
       <c r="C29" t="n">
-        <v>1129.497974618055</v>
+        <v>885.2071026323059</v>
       </c>
       <c r="D29" t="n">
-        <v>1129.497974618055</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="E29" t="n">
-        <v>695.7232297763499</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="F29" t="n">
-        <v>695.7232297763499</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H29" t="n">
         <v>49.90285225279524</v>
       </c>
       <c r="I29" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478771</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385204</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M29" t="n">
         <v>1196.234131838216</v>
@@ -6493,22 +6493,22 @@
         <v>2457.142437510219</v>
       </c>
       <c r="T29" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U29" t="n">
-        <v>1986.782910855321</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V29" t="n">
-        <v>1986.782910855321</v>
+        <v>2094.525487444046</v>
       </c>
       <c r="W29" t="n">
-        <v>1986.782910855321</v>
+        <v>2094.525487444046</v>
       </c>
       <c r="X29" t="n">
-        <v>1567.640447434631</v>
+        <v>1675.383024023356</v>
       </c>
       <c r="Y29" t="n">
-        <v>1567.640447434631</v>
+        <v>1323.349575448883</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>185.3289100816567</v>
       </c>
       <c r="K30" t="n">
-        <v>354.9720379468261</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L30" t="n">
-        <v>583.0781586238289</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M30" t="n">
-        <v>849.2672423832561</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N30" t="n">
         <v>1122.501559119456</v>
       </c>
       <c r="O30" t="n">
-        <v>1372.457578276418</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P30" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161789</v>
       </c>
       <c r="Q30" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R30" t="n">
         <v>1677.417474573878</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5263653260708</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C31" t="n">
-        <v>434.9646538092958</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D31" t="n">
-        <v>434.9646538092958</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="E31" t="n">
-        <v>408.1432910235562</v>
+        <v>242.9091652223311</v>
       </c>
       <c r="F31" t="n">
-        <v>408.1432910235562</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="G31" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H31" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I31" t="n">
         <v>49.90285225279524</v>
       </c>
       <c r="J31" t="n">
-        <v>112.1724417969994</v>
+        <v>176.0455938093886</v>
       </c>
       <c r="K31" t="n">
-        <v>214.5005058801842</v>
+        <v>278.3736578925734</v>
       </c>
       <c r="L31" t="n">
-        <v>763.6550793552192</v>
+        <v>409.3183495996473</v>
       </c>
       <c r="M31" t="n">
-        <v>901.7178969597854</v>
+        <v>1006.865034385126</v>
       </c>
       <c r="N31" t="n">
-        <v>1478.75669250493</v>
+        <v>1583.903829930271</v>
       </c>
       <c r="O31" t="n">
-        <v>2022.91707947448</v>
+        <v>2128.064216899821</v>
       </c>
       <c r="P31" t="n">
-        <v>2402.780666612564</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q31" t="n">
         <v>2476.532137525726</v>
@@ -6648,25 +6648,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.522305909177</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U31" t="n">
-        <v>1831.138321940815</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V31" t="n">
-        <v>1544.182813811246</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W31" t="n">
-        <v>1272.156409397537</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X31" t="n">
-        <v>1026.76465473095</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.344984045058</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1746.849277064803</v>
+        <v>1409.163883541977</v>
       </c>
       <c r="C32" t="n">
-        <v>1746.849277064803</v>
+        <v>1153.820286956535</v>
       </c>
       <c r="D32" t="n">
-        <v>1310.939492239248</v>
+        <v>717.910502130979</v>
       </c>
       <c r="E32" t="n">
-        <v>877.1647473975427</v>
+        <v>717.910502130979</v>
       </c>
       <c r="F32" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90285225279526</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296506</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478781</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863834</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385217</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.234131838218</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N32" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O32" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U32" t="n">
-        <v>2236.080579222602</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="V32" t="n">
-        <v>2236.080579222602</v>
+        <v>1835.463454026885</v>
       </c>
       <c r="W32" t="n">
-        <v>2236.080579222602</v>
+        <v>1835.463454026885</v>
       </c>
       <c r="X32" t="n">
-        <v>2236.080579222602</v>
+        <v>1835.463454026885</v>
       </c>
       <c r="Y32" t="n">
-        <v>1827.794455522255</v>
+        <v>1835.463454026885</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G33" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07360363779621</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J33" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K33" t="n">
-        <v>354.9720379468262</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L33" t="n">
-        <v>583.0781586238289</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M33" t="n">
-        <v>849.2672423832561</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N33" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O33" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P33" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161789</v>
       </c>
       <c r="Q33" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R33" t="n">
         <v>1677.417474573878</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.5527697397802</v>
+        <v>607.5263653260708</v>
       </c>
       <c r="C34" t="n">
-        <v>879.5527697397802</v>
+        <v>434.9646538092958</v>
       </c>
       <c r="D34" t="n">
-        <v>713.6747769413029</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E34" t="n">
-        <v>543.9167731920402</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F34" t="n">
-        <v>367.2097191537964</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G34" t="n">
-        <v>202.517085119392</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H34" t="n">
-        <v>70.6046457106122</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J34" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K34" t="n">
-        <v>575.8386456160097</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L34" t="n">
-        <v>1124.993219091045</v>
+        <v>577.5111244639796</v>
       </c>
       <c r="M34" t="n">
-        <v>1521.286192798212</v>
+        <v>1175.057809249459</v>
       </c>
       <c r="N34" t="n">
-        <v>1656.066185185712</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O34" t="n">
-        <v>1780.55732292948</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.587891748233</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q34" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S34" t="n">
         <v>2351.562104678987</v>
       </c>
       <c r="T34" t="n">
-        <v>2109.522305909178</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U34" t="n">
-        <v>1831.138321940816</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V34" t="n">
-        <v>1544.182813811247</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W34" t="n">
-        <v>1544.182813811247</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X34" t="n">
-        <v>1298.791059144659</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y34" t="n">
-        <v>1071.371388458767</v>
+        <v>799.344984045058</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1006.40379549826</v>
+        <v>1727.670207984622</v>
       </c>
       <c r="C35" t="n">
-        <v>911.5450266852923</v>
+        <v>1289.527735168045</v>
       </c>
       <c r="D35" t="n">
-        <v>911.5450266852923</v>
+        <v>853.6179503424894</v>
       </c>
       <c r="E35" t="n">
         <v>477.7702818435875</v>
@@ -6934,16 +6934,16 @@
         <v>49.90285225279524</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385204</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M35" t="n">
         <v>1196.234131838216</v>
@@ -6964,25 +6964,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S35" t="n">
-        <v>2457.142437510219</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T35" t="n">
-        <v>2245.844944272481</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="U35" t="n">
-        <v>2245.844944272481</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="V35" t="n">
-        <v>2245.844944272481</v>
+        <v>2132.525662573588</v>
       </c>
       <c r="W35" t="n">
-        <v>1840.989489683515</v>
+        <v>1727.670207984622</v>
       </c>
       <c r="X35" t="n">
-        <v>1840.989489683515</v>
+        <v>1727.670207984622</v>
       </c>
       <c r="Y35" t="n">
-        <v>1432.703365983168</v>
+        <v>1727.670207984622</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>49.90285225279524</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J36" t="n">
-        <v>90.3462740586958</v>
+        <v>90.34627405869671</v>
       </c>
       <c r="K36" t="n">
-        <v>259.9894019238652</v>
+        <v>259.989401923866</v>
       </c>
       <c r="L36" t="n">
-        <v>488.0955226008679</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M36" t="n">
-        <v>754.2846063602951</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N36" t="n">
-        <v>1027.518923096495</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O36" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P36" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q36" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R36" t="n">
         <v>1677.417474573878</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>796.4429796831309</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C37" t="n">
-        <v>623.8812681663559</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D37" t="n">
-        <v>458.0032753678785</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="E37" t="n">
-        <v>288.2452716186158</v>
+        <v>242.9091652223311</v>
       </c>
       <c r="F37" t="n">
-        <v>111.538217580372</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="G37" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H37" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I37" t="n">
         <v>49.90285225279524</v>
       </c>
       <c r="J37" t="n">
-        <v>198.7521269616892</v>
+        <v>176.0455938093886</v>
       </c>
       <c r="K37" t="n">
-        <v>575.8386456160097</v>
+        <v>278.3736578925734</v>
       </c>
       <c r="L37" t="n">
-        <v>1124.993219091045</v>
+        <v>409.3183495996473</v>
       </c>
       <c r="M37" t="n">
-        <v>1722.539903876524</v>
+        <v>1006.865034385126</v>
       </c>
       <c r="N37" t="n">
-        <v>1857.319896264024</v>
+        <v>1583.903829930271</v>
       </c>
       <c r="O37" t="n">
-        <v>1981.811034007792</v>
+        <v>2128.064216899821</v>
       </c>
       <c r="P37" t="n">
         <v>2234.587891748232</v>
@@ -7122,25 +7122,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S37" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T37" t="n">
-        <v>2109.522305909177</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U37" t="n">
-        <v>1831.138321940815</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.182813811246</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.156409397537</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X37" t="n">
-        <v>1215.68126908801</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.2615984021181</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1427.177330326539</v>
+        <v>1873.463629156427</v>
       </c>
       <c r="C38" t="n">
-        <v>1427.177330326539</v>
+        <v>1873.463629156427</v>
       </c>
       <c r="D38" t="n">
-        <v>1427.177330326539</v>
+        <v>1437.553844330871</v>
       </c>
       <c r="E38" t="n">
-        <v>993.4025854848342</v>
+        <v>1003.779099489167</v>
       </c>
       <c r="F38" t="n">
-        <v>565.535155894042</v>
+        <v>575.9116698983744</v>
       </c>
       <c r="G38" t="n">
         <v>318.5160365770239</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478766</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863822</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385208</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P38" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.14243751022</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T38" t="n">
-        <v>2457.14243751022</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="U38" t="n">
-        <v>2198.080404093059</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="V38" t="n">
-        <v>1835.463454026886</v>
+        <v>1873.463629156427</v>
       </c>
       <c r="W38" t="n">
-        <v>1835.463454026886</v>
+        <v>1873.463629156427</v>
       </c>
       <c r="X38" t="n">
-        <v>1835.463454026886</v>
+        <v>1873.463629156427</v>
       </c>
       <c r="Y38" t="n">
-        <v>1427.177330326539</v>
+        <v>1873.463629156427</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279526</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J39" t="n">
-        <v>90.34627405869539</v>
+        <v>90.34627405869671</v>
       </c>
       <c r="K39" t="n">
-        <v>259.9894019238648</v>
+        <v>259.989401923866</v>
       </c>
       <c r="L39" t="n">
-        <v>488.0955226008676</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M39" t="n">
-        <v>754.2846063602948</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N39" t="n">
-        <v>1027.518923096495</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O39" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P39" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q39" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R39" t="n">
         <v>1677.417474573878</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.1700603278379</v>
+        <v>751.1068732868457</v>
       </c>
       <c r="C40" t="n">
-        <v>754.6083488110628</v>
+        <v>578.5451617700706</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6083488110628</v>
+        <v>412.6671689715934</v>
       </c>
       <c r="E40" t="n">
-        <v>584.8503450618</v>
+        <v>242.9091652223306</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1432910235562</v>
+        <v>66.20211118408682</v>
       </c>
       <c r="G40" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H40" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J40" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K40" t="n">
-        <v>214.5005058801842</v>
+        <v>301.080191044874</v>
       </c>
       <c r="L40" t="n">
-        <v>345.4451975872582</v>
+        <v>432.0248827519479</v>
       </c>
       <c r="M40" t="n">
-        <v>942.9918823727375</v>
+        <v>1029.571567537427</v>
       </c>
       <c r="N40" t="n">
-        <v>1520.030677917882</v>
+        <v>1606.610363082572</v>
       </c>
       <c r="O40" t="n">
-        <v>2064.191064887432</v>
+        <v>2150.770750052121</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748233</v>
+        <v>2257.294424900532</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R40" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T40" t="n">
-        <v>2109.522305909178</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U40" t="n">
-        <v>1831.138321940816</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.182813811247</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W40" t="n">
-        <v>1399.981485680317</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X40" t="n">
-        <v>1154.58973101373</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y40" t="n">
-        <v>927.1700603278379</v>
+        <v>942.9254920058329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>913.680066669143</v>
+        <v>1611.700403604622</v>
       </c>
       <c r="C41" t="n">
-        <v>913.680066669143</v>
+        <v>1173.557930788045</v>
       </c>
       <c r="D41" t="n">
-        <v>477.7702818435875</v>
+        <v>737.6481459624897</v>
       </c>
       <c r="E41" t="n">
-        <v>477.7702818435875</v>
+        <v>303.8734011207849</v>
       </c>
       <c r="F41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296493</v>
       </c>
       <c r="J41" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K41" t="n">
         <v>541.6060719863819</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385201</v>
       </c>
       <c r="M41" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O41" t="n">
         <v>1877.413604793268</v>
@@ -7432,31 +7432,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T41" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U41" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V41" t="n">
-        <v>2132.525662573588</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="W41" t="n">
-        <v>1727.670207984622</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="X41" t="n">
-        <v>1308.527744563932</v>
+        <v>2037.99997408953</v>
       </c>
       <c r="Y41" t="n">
-        <v>913.680066669143</v>
+        <v>2037.99997408953</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I42" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1581586966558</v>
+        <v>90.34627405869671</v>
       </c>
       <c r="K42" t="n">
-        <v>318.8012865618251</v>
+        <v>259.989401923866</v>
       </c>
       <c r="L42" t="n">
-        <v>546.9074072388279</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M42" t="n">
-        <v>813.0964909982551</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N42" t="n">
-        <v>1086.330807734455</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P42" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q42" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R42" t="n">
         <v>1677.417474573878</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.344984045058</v>
+        <v>885.9103492944323</v>
       </c>
       <c r="C43" t="n">
-        <v>726.9385368731836</v>
+        <v>713.3486377776572</v>
       </c>
       <c r="D43" t="n">
-        <v>561.0605440747063</v>
+        <v>547.47064497918</v>
       </c>
       <c r="E43" t="n">
-        <v>391.3025403254435</v>
+        <v>377.7126412299172</v>
       </c>
       <c r="F43" t="n">
-        <v>214.5954862871997</v>
+        <v>201.0055871916734</v>
       </c>
       <c r="G43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J43" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K43" t="n">
-        <v>575.8386456160097</v>
+        <v>446.5664327569052</v>
       </c>
       <c r="L43" t="n">
-        <v>706.7833373230836</v>
+        <v>577.5111244639792</v>
       </c>
       <c r="M43" t="n">
-        <v>1304.330022108563</v>
+        <v>1175.057809249458</v>
       </c>
       <c r="N43" t="n">
-        <v>1439.110014496063</v>
+        <v>1752.096604794603</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.557322929479</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748232</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q43" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678987</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T43" t="n">
         <v>2109.522305909177</v>
       </c>
       <c r="U43" t="n">
-        <v>1831.138321940815</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.182813811246</v>
+        <v>1822.566797779607</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.156409397537</v>
+        <v>1550.540393365899</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.76465473095</v>
+        <v>1305.148638699311</v>
       </c>
       <c r="Y43" t="n">
-        <v>799.344984045058</v>
+        <v>1077.728968013419</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>944.3522464871156</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C44" t="n">
-        <v>944.3522464871156</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D44" t="n">
-        <v>508.4424616615601</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E44" t="n">
-        <v>508.4424616615601</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F44" t="n">
-        <v>508.4424616615601</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G44" t="n">
-        <v>109.0479961076049</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I44" t="n">
         <v>125.1921461296497</v>
@@ -7651,49 +7651,49 @@
         <v>291.8416560478772</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863826</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L44" t="n">
-        <v>851.460915638521</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P44" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q44" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S44" t="n">
-        <v>2457.14243751022</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T44" t="n">
-        <v>2457.14243751022</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="U44" t="n">
-        <v>2198.080404093059</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="V44" t="n">
-        <v>2198.080404093059</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="W44" t="n">
-        <v>2198.080404093059</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.93794067237</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="Y44" t="n">
-        <v>1370.651816972023</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G45" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I45" t="n">
-        <v>86.07360363779621</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J45" t="n">
-        <v>185.3289100816568</v>
+        <v>90.34627405869594</v>
       </c>
       <c r="K45" t="n">
-        <v>354.9720379468262</v>
+        <v>259.9894019238653</v>
       </c>
       <c r="L45" t="n">
-        <v>488.0955226008676</v>
+        <v>488.095522600868</v>
       </c>
       <c r="M45" t="n">
-        <v>754.2846063602948</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N45" t="n">
         <v>1027.518923096495</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>758.597415342648</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C46" t="n">
-        <v>586.0357038258729</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D46" t="n">
-        <v>420.1577110273956</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="E46" t="n">
-        <v>420.1577110273956</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="F46" t="n">
-        <v>243.4506569891518</v>
+        <v>235.96011493335</v>
       </c>
       <c r="G46" t="n">
-        <v>243.4506569891518</v>
+        <v>71.26748089894559</v>
       </c>
       <c r="H46" t="n">
-        <v>111.538217580372</v>
+        <v>71.26748089894559</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J46" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K46" t="n">
-        <v>214.5005058801842</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L46" t="n">
-        <v>345.4451975872582</v>
+        <v>868.8022167805602</v>
       </c>
       <c r="M46" t="n">
-        <v>942.9918823727375</v>
+        <v>1006.865034385126</v>
       </c>
       <c r="N46" t="n">
-        <v>1520.030677917882</v>
+        <v>1583.903829930271</v>
       </c>
       <c r="O46" t="n">
-        <v>2064.191064887432</v>
+        <v>2128.064216899821</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612565</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q46" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T46" t="n">
-        <v>2109.522305909178</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U46" t="n">
-        <v>1831.138321940816</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V46" t="n">
-        <v>1544.182813811247</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W46" t="n">
-        <v>1272.156409397538</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X46" t="n">
-        <v>1177.835704747527</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.4160340616352</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
   </sheetData>
@@ -8853,22 +8853,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M13" t="n">
-        <v>274.1925087938255</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>228.922270656425</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>82.54773060122693</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>141.4680432173443</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9810,10 +9810,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>29.76750258689435</v>
+        <v>235.8841356914563</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>234.4100271482036</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>160.2273345451438</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>64.51833536604974</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>276.1009215047206</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>234.4100271482037</v>
       </c>
       <c r="M34" t="n">
-        <v>260.8385415177786</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>64.51833536604974</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7304877697261</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>64.51833536605091</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>146.9557997091224</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>234.4100271482032</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>219.1476471612607</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>163.655433795431</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>234.4100271482043</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>25.69226035537429</v>
       </c>
       <c r="X11" t="n">
-        <v>201.8481670695924</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.8976889277164</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.5082013350314</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.793376528797538</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>51.76310528252071</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.81683923109148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>91.82481136987155</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>37.47027585909996</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>81.67066052189108</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>131.6676598093638</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>182.8461170869184</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>403.0480960570488</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>86.99568925213795</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.26815929127369</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
         <v>265.9270524809863</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>129.0487916324836</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>361.9569373893936</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.70924015588969</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>73.50942093182742</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>64.39234410386706</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824728</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T26" t="n">
-        <v>48.77885698714982</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.9094413520812</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T28" t="n">
-        <v>62.78865030445778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>21.96539963108296</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>55.69014837461401</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.5072745538879</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.9094413520812</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.9008481071811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>180.9708874688228</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.1845183053605</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>126.0084365391885</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>40.52423615106218</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>339.8508669635726</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>57.34780557937489</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>146.9094413520812</v>
       </c>
       <c r="H37" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>187.0274482134895</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>150.8515927745677</v>
+        <v>140.5788439102786</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T38" t="n">
         <v>209.1845183053605</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>146.9094413520817</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>126.5468255199511</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>172.1579119155746</v>
       </c>
       <c r="G41" t="n">
         <v>395.4005208984156</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.1845183053605</v>
@@ -25687,16 +25687,16 @@
         <v>256.471413082989</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.30406134750183</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.15371170145161</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>13.45400010457095</v>
       </c>
       <c r="H43" t="n">
         <v>130.593315014692</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H44" t="n">
-        <v>207.3733600647247</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>370.5946538977953</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.86802931461211</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>149.5603395164105</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>317582.9763461858</v>
+        <v>317582.9763461859</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>317582.9763461858</v>
+        <v>317582.9763461859</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>317582.9763461858</v>
+        <v>317582.9763461859</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331889.4693415998</v>
+        <v>331889.4693415999</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>331889.4693416</v>
+        <v>331889.4693415999</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>331889.4693416</v>
+        <v>331889.4693415999</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331889.4693415999</v>
+        <v>331889.4693416</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331889.4693416</v>
+        <v>331889.4693415998</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331889.4693415999</v>
+        <v>331889.4693415998</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331889.4693416</v>
+        <v>331889.4693415999</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>418707.7063118333</v>
       </c>
       <c r="C2" t="n">
-        <v>418707.7063118333</v>
+        <v>418707.7063118334</v>
       </c>
       <c r="D2" t="n">
         <v>418707.7063118333</v>
@@ -26334,10 +26334,10 @@
         <v>251676.1140813077</v>
       </c>
       <c r="I2" t="n">
+        <v>262836.1542014049</v>
+      </c>
+      <c r="J2" t="n">
         <v>262836.1542014048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>262836.1542014049</v>
       </c>
       <c r="K2" t="n">
         <v>262836.1542014049</v>
@@ -26346,16 +26346,16 @@
         <v>262836.1542014049</v>
       </c>
       <c r="M2" t="n">
+        <v>262836.1542014048</v>
+      </c>
+      <c r="N2" t="n">
         <v>262836.1542014049</v>
       </c>
-      <c r="N2" t="n">
-        <v>262836.154201405</v>
-      </c>
       <c r="O2" t="n">
-        <v>262836.1542014049</v>
+        <v>262836.1542014048</v>
       </c>
       <c r="P2" t="n">
-        <v>262836.154201405</v>
+        <v>262836.1542014048</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.7643274594</v>
+        <v>29024.76432745931</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>19185.36025012661</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="F4" t="n">
         <v>19185.36025012662</v>
       </c>
       <c r="G4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="H4" t="n">
-        <v>19185.36025012662</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="I4" t="n">
-        <v>20259.92025646577</v>
+        <v>20259.92025646578</v>
       </c>
       <c r="J4" t="n">
         <v>20259.92025646578</v>
@@ -26447,19 +26447,19 @@
         <v>20259.92025646578</v>
       </c>
       <c r="L4" t="n">
-        <v>20259.92025646579</v>
+        <v>20259.92025646578</v>
       </c>
       <c r="M4" t="n">
         <v>20259.92025646578</v>
       </c>
       <c r="N4" t="n">
-        <v>20259.92025646579</v>
+        <v>20259.92025646577</v>
       </c>
       <c r="O4" t="n">
+        <v>20259.92025646577</v>
+      </c>
+      <c r="P4" t="n">
         <v>20259.92025646578</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20259.92025646579</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>48681.28220745477</v>
       </c>
       <c r="J5" t="n">
-        <v>48681.28220745478</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="K5" t="n">
         <v>48681.28220745477</v>
       </c>
       <c r="L5" t="n">
-        <v>48681.28220745479</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="M5" t="n">
         <v>48681.28220745477</v>
       </c>
       <c r="N5" t="n">
-        <v>48681.28220745479</v>
+        <v>48681.28220745476</v>
       </c>
       <c r="O5" t="n">
+        <v>48681.28220745476</v>
+      </c>
+      <c r="P5" t="n">
         <v>48681.28220745477</v>
-      </c>
-      <c r="P5" t="n">
-        <v>48681.28220745479</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249897</v>
       </c>
       <c r="D6" t="n">
-        <v>86349.39000000048</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="E6" t="n">
-        <v>-364695.5283691324</v>
+        <v>-365249.4088123544</v>
       </c>
       <c r="F6" t="n">
-        <v>186439.6726215433</v>
+        <v>185885.7921783213</v>
       </c>
       <c r="G6" t="n">
-        <v>186439.6726215433</v>
+        <v>185885.7921783213</v>
       </c>
       <c r="H6" t="n">
-        <v>186439.6726215432</v>
+        <v>185885.7921783214</v>
       </c>
       <c r="I6" t="n">
-        <v>164870.1874100249</v>
+        <v>164351.1820921784</v>
       </c>
       <c r="J6" t="n">
-        <v>193894.9517374844</v>
+        <v>193375.9464196376</v>
       </c>
       <c r="K6" t="n">
-        <v>193894.9517374844</v>
+        <v>193375.9464196377</v>
       </c>
       <c r="L6" t="n">
-        <v>193894.9517374844</v>
+        <v>193375.9464196377</v>
       </c>
       <c r="M6" t="n">
-        <v>46844.18333491296</v>
+        <v>46325.17801706621</v>
       </c>
       <c r="N6" t="n">
-        <v>193894.9517374844</v>
+        <v>193375.9464196377</v>
       </c>
       <c r="O6" t="n">
-        <v>193894.9517374843</v>
+        <v>193375.9464196377</v>
       </c>
       <c r="P6" t="n">
-        <v>193894.9517374844</v>
+        <v>193375.9464196376</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="J3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="K3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="L3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="M3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="N3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="O3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="P3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325868</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>623.7856531599405</v>
       </c>
       <c r="J4" t="n">
-        <v>623.7856531599406</v>
+        <v>623.7856531599405</v>
       </c>
       <c r="K4" t="n">
         <v>623.7856531599405</v>
       </c>
       <c r="L4" t="n">
-        <v>623.7856531599407</v>
+        <v>623.7856531599405</v>
       </c>
       <c r="M4" t="n">
         <v>623.7856531599405</v>
       </c>
       <c r="N4" t="n">
-        <v>623.7856531599407</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="O4" t="n">
+        <v>623.7856531599404</v>
+      </c>
+      <c r="P4" t="n">
         <v>623.7856531599405</v>
-      </c>
-      <c r="P4" t="n">
-        <v>623.7856531599407</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936579</v>
+        <v>26.65194783936568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32095,19 +32095,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32323,13 +32323,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H23" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393392</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012398</v>
@@ -32715,16 +32715,16 @@
         <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N23" t="n">
         <v>353.8909164516234</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P23" t="n">
         <v>285.2056444279434</v>
@@ -32736,10 +32736,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U23" t="n">
         <v>0.1586665731642489</v>
@@ -32785,7 +32785,7 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J24" t="n">
         <v>100.2578852968288</v>
@@ -32797,31 +32797,31 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N24" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>156.5387708424246</v>
+        <v>156.5387708424248</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S24" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I25" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L25" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N25" t="n">
         <v>136.1414064520203</v>
@@ -32885,10 +32885,10 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P25" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R25" t="n">
         <v>40.00210279282908</v>
@@ -32897,10 +32897,10 @@
         <v>15.50425213381588</v>
       </c>
       <c r="T25" t="n">
-        <v>3.801251175218292</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H26" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393392</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J26" t="n">
         <v>168.3328383012398</v>
@@ -32952,16 +32952,16 @@
         <v>252.2872888267731</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N26" t="n">
         <v>353.8909164516234</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
         <v>285.2056444279434</v>
@@ -32973,10 +32973,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U26" t="n">
         <v>0.1586665731642489</v>
@@ -33022,7 +33022,7 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J27" t="n">
         <v>100.2578852968288</v>
@@ -33034,31 +33034,31 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N27" t="n">
-        <v>180.0522027406455</v>
+        <v>180.0522027406458</v>
       </c>
       <c r="O27" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S27" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I28" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L28" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N28" t="n">
         <v>136.1414064520203</v>
@@ -33122,10 +33122,10 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P28" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R28" t="n">
         <v>40.00210279282908</v>
@@ -33134,10 +33134,10 @@
         <v>15.50425213381588</v>
       </c>
       <c r="T28" t="n">
-        <v>3.801251175218292</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H29" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I29" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R29" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U29" t="n">
         <v>0.1586665731642489</v>
@@ -33259,43 +33259,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J30" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L30" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N30" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O30" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P30" t="n">
-        <v>106.6960665276879</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S30" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J31" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N31" t="n">
         <v>136.1414064520203</v>
@@ -33359,22 +33359,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P31" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R31" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S31" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T31" t="n">
-        <v>3.801251175218292</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H32" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R32" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U32" t="n">
         <v>0.1586665731642489</v>
@@ -33496,43 +33496,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J33" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N33" t="n">
-        <v>180.0522027406455</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P33" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S33" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T33" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I34" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K34" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M34" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N34" t="n">
         <v>136.1414064520203</v>
@@ -33596,22 +33596,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P34" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R34" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S34" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T34" t="n">
-        <v>3.801251175218292</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H35" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R35" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U35" t="n">
         <v>0.1586665731642489</v>
@@ -33733,43 +33733,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J36" t="n">
-        <v>40.85194121808138</v>
+        <v>4.31582870798033</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S36" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T36" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I37" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N37" t="n">
         <v>136.1414064520203</v>
@@ -33833,22 +33833,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P37" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R37" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S37" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T37" t="n">
-        <v>3.801251175218292</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H38" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393393</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R38" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975409</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U38" t="n">
         <v>0.1586665731642489</v>
@@ -33970,43 +33970,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808094</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S39" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T39" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630952</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702388</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H40" t="n">
-        <v>7.90983755183722</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I40" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717588</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M40" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O40" t="n">
         <v>125.7486239836043</v>
       </c>
       <c r="P40" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582064</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R40" t="n">
-        <v>40.00210279282909</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S40" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T40" t="n">
-        <v>3.801251175218292</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R41" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U41" t="n">
         <v>0.1586665731642489</v>
@@ -34207,43 +34207,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
-        <v>193.0748833525265</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S42" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I43" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N43" t="n">
         <v>136.1414064520203</v>
@@ -34307,22 +34307,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P43" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S43" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T43" t="n">
-        <v>3.801251175218292</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,31 +34359,31 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.983332164553112</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H44" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393393</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K44" t="n">
         <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
         <v>285.2056444279434</v>
@@ -34395,10 +34395,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975409</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U44" t="n">
         <v>0.1586665731642489</v>
@@ -34444,43 +34444,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968289</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>134.4681663172136</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165375</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.4582189164341</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S45" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630952</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702388</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H46" t="n">
-        <v>7.90983755183722</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I46" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717588</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K46" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M46" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O46" t="n">
         <v>125.7486239836043</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640514</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582064</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282909</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S46" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T46" t="n">
-        <v>3.801251175218292</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35573,22 +35573,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M13" t="n">
-        <v>406.1161374186026</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>354.0442924930895</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35886,7 +35886,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184533</v>
@@ -35971,10 +35971,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36047,22 +36047,22 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>211.3345102011153</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>259.9914571795427</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36126,7 +36126,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>270.2548228172327</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480252</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012398</v>
@@ -36363,13 +36363,13 @@
         <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M23" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O23" t="n">
         <v>334.1691572403483</v>
@@ -36445,13 +36445,13 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N24" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O24" t="n">
-        <v>156.5387708424246</v>
+        <v>156.5387708424248</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165374</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717588</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K25" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L25" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M25" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N25" t="n">
         <v>582.867470247621</v>
       </c>
       <c r="O25" t="n">
-        <v>155.5161265704987</v>
+        <v>361.6327596750607</v>
       </c>
       <c r="P25" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480252</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012404</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M26" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848851</v>
       </c>
       <c r="R26" t="n">
-        <v>124.585489081609</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J27" t="n">
         <v>100.2578852968288</v>
@@ -36682,10 +36682,10 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N27" t="n">
-        <v>180.0522027406455</v>
+        <v>180.0522027406458</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312741</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L28" t="n">
-        <v>132.2673653606807</v>
+        <v>366.6773925088843</v>
       </c>
       <c r="M28" t="n">
         <v>603.5825098843225</v>
       </c>
       <c r="N28" t="n">
-        <v>296.3687409971641</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O28" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.3881270479746</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N29" t="n">
         <v>353.8909164516233</v>
@@ -36919,22 +36919,22 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O30" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P30" t="n">
-        <v>106.6960665276879</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.89857529717588</v>
+        <v>127.4169106632256</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>554.7015893687222</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197639</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N31" t="n">
         <v>582.867470247621</v>
@@ -37007,13 +37007,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
-        <v>383.7005930687719</v>
+        <v>107.5996715640517</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267731</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
         <v>348.2557739390868</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J33" t="n">
         <v>100.2578852968288</v>
@@ -37156,22 +37156,22 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N33" t="n">
-        <v>180.0522027406455</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O33" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P33" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.4582189164341</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K34" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L34" t="n">
-        <v>554.7015893687224</v>
+        <v>366.6773925088844</v>
       </c>
       <c r="M34" t="n">
-        <v>400.2959330375425</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N34" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O34" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P34" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R34" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267732</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390869</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N35" t="n">
         <v>353.8909164516233</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J36" t="n">
-        <v>40.85194121808138</v>
+        <v>4.31582870798033</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P36" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.4582189164341</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>150.3528027362565</v>
+        <v>127.4169106632256</v>
       </c>
       <c r="K37" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
-        <v>554.7015893687224</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M37" t="n">
         <v>603.5825098843225</v>
       </c>
       <c r="N37" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O37" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P37" t="n">
-        <v>255.3301593337774</v>
+        <v>107.5996715640517</v>
       </c>
       <c r="Q37" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480253</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267733</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M38" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848851</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808094</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.4582189164341</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.8985752971759</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606808</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M40" t="n">
-        <v>603.5825098843225</v>
+        <v>603.5825098843226</v>
       </c>
       <c r="N40" t="n">
         <v>582.867470247621</v>
@@ -37718,13 +37718,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P40" t="n">
-        <v>172.1180069301022</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.3881270479742</v>
+        <v>221.4522349749432</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O41" t="n">
         <v>334.1691572403483</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
-        <v>193.0748833525265</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P42" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164341</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K43" t="n">
-        <v>380.8954733882025</v>
+        <v>337.771708040309</v>
       </c>
       <c r="L43" t="n">
         <v>132.2673653606807</v>
@@ -37949,19 +37949,19 @@
         <v>603.5825098843225</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O43" t="n">
-        <v>344.8962711448651</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480253</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J44" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M44" t="n">
-        <v>348.255773939087</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516238</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
         <v>285.2056444279433</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968289</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>134.4681663172136</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q45" t="n">
         <v>135.4582189164341</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.8985752971759</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606808</v>
+        <v>295.9227991561118</v>
       </c>
       <c r="M46" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N46" t="n">
         <v>582.867470247621</v>
@@ -38192,13 +38192,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P46" t="n">
-        <v>342.0096987122556</v>
+        <v>107.5996715640517</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
